--- a/biology/Zoologie/Bombus_alpinus/Bombus_alpinus.xlsx
+++ b/biology/Zoologie/Bombus_alpinus/Bombus_alpinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bombus alpinus, le bourdon alpin, est une espèce de bourdons vivant en Europe. Il fait partie du sous-genre Alpinobombus. 
 </t>
@@ -511,13 +523,15 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans 3 zones distinctes :
 les Alpes et montagnes en France, en Suisse, en Allemagne, en Autriche
 en Roumanie
 dans toute la Norvège, le nord de la Suède, le nord de la Finlande et le nord de la Péninsule de Kola en Russie.
-C'est une espèce vivant dans les prairies de montagnes et dans la toundra[1].
+C'est une espèce vivant dans les prairies de montagnes et dans la toundra.
 </t>
         </is>
       </c>
